--- a/biology/Médecine/Université_préfectorale_d'infirmières_et_de_santé_d'Aichi/Université_préfectorale_d'infirmières_et_de_santé_d'Aichi.xlsx
+++ b/biology/Médecine/Université_préfectorale_d'infirmières_et_de_santé_d'Aichi/Université_préfectorale_d'infirmières_et_de_santé_d'Aichi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_pr%C3%A9fectorale_d%27infirmi%C3%A8res_et_de_sant%C3%A9_d%27Aichi</t>
+          <t>Université_préfectorale_d'infirmières_et_de_santé_d'Aichi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université préfectorale d'infirmières et de santé d'Aichi (愛知県立看護大学, Aichi kenritsu kango daigaku?) est une université publique située dans la ville de Nagoya, préfecture d'Aichi au Japon. L'école est fondée en 1995.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_pr%C3%A9fectorale_d%27infirmi%C3%A8res_et_de_sant%C3%A9_d%27Aichi</t>
+          <t>Université_préfectorale_d'infirmières_et_de_santé_d'Aichi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Université préfectorale d'Aichi</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_pr%C3%A9fectorale_d%27infirmi%C3%A8res_et_de_sant%C3%A9_d%27Aichi</t>
+          <t>Université_préfectorale_d'infirmières_et_de_santé_d'Aichi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ja) Site officiel</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_pr%C3%A9fectorale_d%27infirmi%C3%A8res_et_de_sant%C3%A9_d%27Aichi</t>
+          <t>Université_préfectorale_d'infirmières_et_de_santé_d'Aichi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Aichi Prefectural College of Nursing &amp; Health » (voir la liste des auteurs).
  Portail des universités   Portail de la médecine   Portail de la préfecture d'Aichi                   </t>
